--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -498,113 +498,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Keshla FC</t>
+          <t>Fehérvár FC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>Kecskeméti TE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.18</v>
+        <v>2.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>100</v>
       </c>
-      <c r="J2" t="n">
-        <v>80</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macclesfield</t>
+          <t>Bnei Yehuda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J3" t="n">
         <v>100</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>Dakota</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.6</v>
+        <v>10.25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -636,25 +636,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -687,16 +687,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>3.72</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -716,217 +716,217 @@
         <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dinamo Bucuresti</t>
+          <t>Persipal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Persiba Balikpapan</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>4.65</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>91.7</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KAMAZ</t>
+          <t>Virtus Verona</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Vicenza Virtus</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.36</v>
+        <v>5.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>84.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>84.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xelajú</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marquense</t>
+          <t>Al-Ahli Jeddah</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.33</v>
+        <v>9.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.4</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Birmingham City W</t>
+          <t>America de Cali</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crystal Palace W</t>
+          <t>Jaguares</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>83.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>16.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="I10" t="n">
-        <v>83.3</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>66.7</v>
+        <v>51.1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.29</v>
+        <v>1.15</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Eintracht Frankfurt W</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>SC Freiburg W</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.32</v>
+        <v>1.37</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -934,45 +934,45 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>83.3</v>
+        <v>84</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H11" t="n">
-        <v>33.3</v>
+        <v>25.9</v>
       </c>
       <c r="I11" t="n">
-        <v>66.7</v>
+        <v>11.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>84</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gulf United</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Al Hamriyah</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.35</v>
+        <v>1.22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -980,45 +980,45 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>10.7</v>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>39.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.68</v>
+        <v>1.03</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Al Shorta</t>
+          <t>Kazma</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Al-Duhail SC</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.3</v>
+        <v>3.18</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1026,45 +1026,45 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>42.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I13" t="n">
-        <v>40</v>
+        <v>28.6</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>2.61</v>
+        <v>1.35</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Grafičar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bangu</t>
+          <t>FAP</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>12.8</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K14" t="n">
-        <v>0.92</v>
+        <v>1.21</v>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -1101,108 +1101,108 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Gais</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Landskrona BoIS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.28</v>
+        <v>1.19</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>79.2</v>
+        <v>76.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="H15" t="n">
-        <v>20.8</v>
+        <v>11.8</v>
       </c>
       <c r="I15" t="n">
-        <v>79.2</v>
+        <v>11.8</v>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>58.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="L15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zeljeznicar Sarajevo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Metaloglobus</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>78</v>
+        <v>76.2</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>76.2</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>14.3</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>52.4</v>
       </c>
       <c r="K16" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aveley</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chichester City</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1210,183 +1210,183 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>77.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="G17" t="n">
-        <v>77.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="H17" t="n">
-        <v>12.9</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>63.5</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L17" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Matagalpa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Real Estelí</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.39</v>
+        <v>4.6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
-        <v>77.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>11.4</v>
+        <v>37.5</v>
       </c>
       <c r="I18" t="n">
-        <v>11.4</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>48.6</v>
+        <v>75</v>
       </c>
       <c r="K18" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="L18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01:05</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>América W</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.31</v>
+        <v>3.34</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="G19" t="n">
-        <v>77.09999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="H19" t="n">
-        <v>11.4</v>
+        <v>16.7</v>
       </c>
       <c r="I19" t="n">
-        <v>11.4</v>
+        <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>48.6</v>
+        <v>75</v>
       </c>
       <c r="K19" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="L19" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ural</t>
+          <t>ATK Mohun Bagan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.8</v>
+        <v>1.25</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>75</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>16.3</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>60.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Diriangén</t>
+          <t>West Bromwich Albion U21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>H&amp;H Export</t>
+          <t>Blackburn Rovers U21</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1394,183 +1394,183 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>9.5</v>
+        <v>17.6</v>
       </c>
       <c r="I21" t="n">
-        <v>16.7</v>
+        <v>9.4</v>
       </c>
       <c r="J21" t="n">
-        <v>61.9</v>
+        <v>50.6</v>
       </c>
       <c r="K21" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="L21" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Barwell</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Halesowen Town</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.66</v>
+        <v>3.6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="G22" t="n">
-        <v>72.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.1</v>
+        <v>27.3</v>
       </c>
       <c r="I22" t="n">
-        <v>9.6</v>
+        <v>72.7</v>
       </c>
       <c r="J22" t="n">
-        <v>50.6</v>
+        <v>54.5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Maccabi Netanya</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anápolis</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.41</v>
+        <v>3.78</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>70.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>70.59999999999999</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>17.6</v>
+        <v>60</v>
       </c>
       <c r="I23" t="n">
-        <v>11.8</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>58.8</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>1.02</v>
+        <v>0.75</v>
       </c>
       <c r="L23" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC</t>
+          <t>Crewe Alexandra U21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Al Wahda FC</t>
+          <t>Peterborough United U21</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.47</v>
+        <v>3.92</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>70.59999999999999</v>
+        <v>57.1</v>
       </c>
       <c r="G24" t="n">
-        <v>70.59999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="H24" t="n">
-        <v>17.6</v>
+        <v>57.1</v>
       </c>
       <c r="I24" t="n">
-        <v>11.8</v>
+        <v>14.3</v>
       </c>
       <c r="J24" t="n">
-        <v>58.8</v>
+        <v>85.7</v>
       </c>
       <c r="K24" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="L24" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFC Hermannstadt</t>
+          <t>Monsoon</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj</t>
+          <t>Avenida</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.35</v>
+        <v>2.36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1578,45 +1578,45 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>66.7</v>
+        <v>48.9</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="H25" t="n">
-        <v>66.7</v>
+        <v>48.9</v>
       </c>
       <c r="I25" t="n">
-        <v>33.3</v>
+        <v>24.4</v>
       </c>
       <c r="J25" t="n">
-        <v>66.7</v>
+        <v>42.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bouselem</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS Hammam-Lif</t>
+          <t>Obolon'-Brovar</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1624,45 +1624,45 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>48.9</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>26.7</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>48.9</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>24.4</v>
       </c>
       <c r="J26" t="n">
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>53.7</v>
+        <v>41.5</v>
       </c>
       <c r="G27" t="n">
-        <v>22</v>
+        <v>43.9</v>
       </c>
       <c r="H27" t="n">
-        <v>53.7</v>
+        <v>41.5</v>
       </c>
       <c r="I27" t="n">
-        <v>24.4</v>
+        <v>14.6</v>
       </c>
       <c r="J27" t="n">
-        <v>39</v>
+        <v>36.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.52</v>
+        <v>1.08</v>
       </c>
       <c r="L27" t="n">
         <v>41</v>
@@ -1694,21 +1694,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qabala</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sabah FA</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.6</v>
+        <v>5.85</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1716,45 +1716,45 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K28" t="n">
-        <v>2.82</v>
+        <v>3.51</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sassuolo U20</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Atalanta U20</t>
+          <t>Ferencvarosi TC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.18</v>
+        <v>4.85</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1762,45 +1762,45 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>39.3</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>32.6</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>0.84</v>
+        <v>2.91</v>
       </c>
       <c r="L29" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FC UFA</t>
+          <t>Zamora FC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.12</v>
+        <v>4.15</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1808,183 +1808,183 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>39.3</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>32.6</v>
+        <v>40</v>
       </c>
       <c r="K30" t="n">
-        <v>0.84</v>
+        <v>1.66</v>
       </c>
       <c r="L30" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>UCV Moquegua</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>3.04</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>40.3</v>
+        <v>53.8</v>
       </c>
       <c r="H31" t="n">
-        <v>44.8</v>
+        <v>30.8</v>
       </c>
       <c r="I31" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="J31" t="n">
-        <v>31.3</v>
+        <v>53.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.71</v>
+        <v>1.64</v>
       </c>
       <c r="L31" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bahla</t>
+          <t>Academia Anzoátegui</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>Estudiantes de Merida FC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6</v>
+        <v>65.7</v>
       </c>
       <c r="H32" t="n">
-        <v>40.6</v>
+        <v>11.4</v>
       </c>
       <c r="I32" t="n">
-        <v>43.8</v>
+        <v>22.9</v>
       </c>
       <c r="J32" t="n">
-        <v>78.09999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.35</v>
+        <v>1.54</v>
       </c>
       <c r="L32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bnei Yehuda</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.7</v>
+        <v>2.19</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>66.2</v>
       </c>
       <c r="H33" t="n">
-        <v>40</v>
+        <v>22.1</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>11.8</v>
       </c>
       <c r="J33" t="n">
-        <v>20</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>0.75</v>
+        <v>1.42</v>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>El Gouna FC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>El Mokawloon</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.24</v>
+        <v>2.53</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1995,42 +1995,42 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>63.6</v>
+        <v>55.2</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="I34" t="n">
-        <v>36.4</v>
+        <v>17.2</v>
       </c>
       <c r="J34" t="n">
-        <v>54.5</v>
+        <v>48.3</v>
       </c>
       <c r="K34" t="n">
-        <v>2.07</v>
+        <v>1.41</v>
       </c>
       <c r="L34" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>PSIM Yogyakarta</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.02</v>
+        <v>2.18</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2041,42 +2041,42 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>53.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>30.8</v>
+        <v>14</v>
       </c>
       <c r="I35" t="n">
-        <v>15.4</v>
+        <v>20.9</v>
       </c>
       <c r="J35" t="n">
-        <v>53.8</v>
+        <v>44.2</v>
       </c>
       <c r="K35" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="L35" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Real Sociedad II</t>
+          <t>UAI Urquiza</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Deportivo Camioneros</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.02</v>
+        <v>2.43</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2087,42 +2087,42 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="H36" t="n">
-        <v>30.8</v>
+        <v>33.3</v>
       </c>
       <c r="I36" t="n">
-        <v>15.4</v>
+        <v>12.5</v>
       </c>
       <c r="J36" t="n">
-        <v>53.8</v>
+        <v>41.7</v>
       </c>
       <c r="K36" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="L36" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ospitaletto</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Inter U23</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.02</v>
+        <v>2.42</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2133,22 +2133,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>54.2</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>41.7</v>
       </c>
       <c r="K37" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2159,16 +2159,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2179,42 +2179,42 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>64.09999999999999</v>
+        <v>35.7</v>
       </c>
       <c r="H38" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>23.1</v>
+        <v>64.3</v>
       </c>
       <c r="J38" t="n">
-        <v>43.6</v>
+        <v>57.1</v>
       </c>
       <c r="K38" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="L38" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Sampaio Corrêa RJ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2225,42 +2225,42 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>64.09999999999999</v>
+        <v>45.2</v>
       </c>
       <c r="H39" t="n">
-        <v>12.8</v>
+        <v>32.3</v>
       </c>
       <c r="I39" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="J39" t="n">
-        <v>43.6</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="L39" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Javor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Mladost Lucani</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2271,42 +2271,42 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>64.09999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="H40" t="n">
-        <v>12.8</v>
+        <v>18.2</v>
       </c>
       <c r="I40" t="n">
-        <v>23.1</v>
+        <v>21.2</v>
       </c>
       <c r="J40" t="n">
-        <v>43.6</v>
+        <v>60.6</v>
       </c>
       <c r="K40" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="L40" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Drenica Skënderaj</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Estac Troyes</t>
+          <t>Prishtina e Re</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,42 +2317,42 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>42.1</v>
+        <v>63.6</v>
       </c>
       <c r="H41" t="n">
-        <v>26.3</v>
+        <v>13.6</v>
       </c>
       <c r="I41" t="n">
-        <v>31.6</v>
+        <v>22.7</v>
       </c>
       <c r="J41" t="n">
-        <v>52.6</v>
+        <v>59.1</v>
       </c>
       <c r="K41" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="L41" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2363,42 +2363,42 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>54.3</v>
+        <v>56.3</v>
       </c>
       <c r="H42" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I42" t="n">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="J42" t="n">
-        <v>51.4</v>
+        <v>55.2</v>
       </c>
       <c r="K42" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="L42" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Saba</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>52.9</v>
+        <v>56.3</v>
       </c>
       <c r="H43" t="n">
-        <v>25.5</v>
+        <v>17.2</v>
       </c>
       <c r="I43" t="n">
-        <v>21.6</v>
+        <v>26.4</v>
       </c>
       <c r="J43" t="n">
-        <v>35.3</v>
+        <v>55.2</v>
       </c>
       <c r="K43" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="L43" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Kudrivka</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Zorya Luhansk</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.77</v>
+        <v>3.65</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>67.3</v>
+        <v>29.4</v>
       </c>
       <c r="H44" t="n">
-        <v>27.3</v>
+        <v>23.5</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>47.1</v>
       </c>
       <c r="J44" t="n">
-        <v>43.6</v>
+        <v>52.9</v>
       </c>
       <c r="K44" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="L44" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dubai United</t>
+          <t>Burnley U21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Al Thaid</t>
+          <t>Derby County U21</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>67.3</v>
+        <v>47.1</v>
       </c>
       <c r="H45" t="n">
-        <v>27.3</v>
+        <v>29.4</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>23.5</v>
       </c>
       <c r="J45" t="n">
-        <v>43.6</v>
+        <v>45.1</v>
       </c>
       <c r="K45" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="L45" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Midland</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.7</v>
+        <v>60.9</v>
       </c>
       <c r="H46" t="n">
-        <v>7.7</v>
+        <v>30.4</v>
       </c>
       <c r="I46" t="n">
-        <v>25.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>59</v>
+        <v>39.1</v>
       </c>
       <c r="K46" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sporting Ben Arous</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ES Hammam-Sousse</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.64</v>
+        <v>1.52</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I47" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J47" t="n">
         <v>52</v>
       </c>
       <c r="K47" t="n">
-        <v>1.17</v>
+        <v>0.99</v>
       </c>
       <c r="L47" t="n">
         <v>25</v>
@@ -2614,21 +2614,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>CS Herediano</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>45.2</v>
+        <v>34.5</v>
       </c>
       <c r="H48" t="n">
-        <v>32.3</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>22.6</v>
+        <v>34.5</v>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>62.1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.15</v>
+        <v>0.98</v>
       </c>
       <c r="L48" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Reading U21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Arsenal U21</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.9</v>
+        <v>2.84</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>57.6</v>
+        <v>34.5</v>
       </c>
       <c r="H49" t="n">
-        <v>15.3</v>
+        <v>31</v>
       </c>
       <c r="I49" t="n">
-        <v>27.1</v>
+        <v>34.5</v>
       </c>
       <c r="J49" t="n">
-        <v>56.5</v>
+        <v>62.1</v>
       </c>
       <c r="K49" t="n">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="L49" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -2711,16 +2711,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instituto Res.</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rosario Central Res.</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>30.8</v>
+        <v>38.9</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="I50" t="n">
-        <v>69.2</v>
+        <v>44.4</v>
       </c>
       <c r="J50" t="n">
-        <v>61.5</v>
+        <v>37</v>
       </c>
       <c r="K50" t="n">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="L50" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chelmsford City</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Maidstone Utd</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>56.2</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>18.8</v>
       </c>
       <c r="I51" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J51" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="K51" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="L51" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Waterhouse</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tivoli Gardens</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>56.2</v>
       </c>
       <c r="H52" t="n">
-        <v>28.3</v>
+        <v>18.8</v>
       </c>
       <c r="I52" t="n">
-        <v>21.7</v>
+        <v>25</v>
       </c>
       <c r="J52" t="n">
-        <v>54.3</v>
+        <v>34.4</v>
       </c>
       <c r="K52" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="L52" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>48.7</v>
+        <v>45.6</v>
       </c>
       <c r="H53" t="n">
-        <v>23.1</v>
+        <v>17.5</v>
       </c>
       <c r="I53" t="n">
-        <v>28.2</v>
+        <v>36.8</v>
       </c>
       <c r="J53" t="n">
-        <v>28.2</v>
+        <v>35.1</v>
       </c>
       <c r="K53" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="L53" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Real Sociedad II</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>45.5</v>
+        <v>44.6</v>
       </c>
       <c r="H54" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="I54" t="n">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
       <c r="J54" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="K54" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="L54" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Future FC</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Zaglebie Lubin</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>56.2</v>
+        <v>51.7</v>
       </c>
       <c r="H55" t="n">
-        <v>18.8</v>
+        <v>28.1</v>
       </c>
       <c r="I55" t="n">
-        <v>25</v>
+        <v>20.2</v>
       </c>
       <c r="J55" t="n">
-        <v>34.4</v>
+        <v>49.4</v>
       </c>
       <c r="K55" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="L55" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sunderland U21</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Reading U21</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>45.6</v>
+        <v>43.4</v>
       </c>
       <c r="H56" t="n">
-        <v>17.5</v>
+        <v>24.1</v>
       </c>
       <c r="I56" t="n">
-        <v>36.8</v>
+        <v>32.5</v>
       </c>
       <c r="J56" t="n">
-        <v>35.1</v>
+        <v>41</v>
       </c>
       <c r="K56" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="L56" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>52</v>
+        <v>47.1</v>
       </c>
       <c r="H57" t="n">
-        <v>33.3</v>
+        <v>28.2</v>
       </c>
       <c r="I57" t="n">
-        <v>14.7</v>
+        <v>24.7</v>
       </c>
       <c r="J57" t="n">
-        <v>68</v>
+        <v>38.8</v>
       </c>
       <c r="K57" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="L57" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Club Queretaro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CFRJ / Maricá</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>45.5</v>
+        <v>32.6</v>
       </c>
       <c r="H58" t="n">
-        <v>18.2</v>
+        <v>32.6</v>
       </c>
       <c r="I58" t="n">
-        <v>36.4</v>
+        <v>34.9</v>
       </c>
       <c r="J58" t="n">
-        <v>27.3</v>
+        <v>44.2</v>
       </c>
       <c r="K58" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L58" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Keçiörengücü</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>45.5</v>
+        <v>43.5</v>
       </c>
       <c r="H59" t="n">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="I59" t="n">
-        <v>36.4</v>
+        <v>39.1</v>
       </c>
       <c r="J59" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="K59" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="L59" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M'saken</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kerkennah</t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>46</v>
+        <v>37.5</v>
       </c>
       <c r="H60" t="n">
-        <v>34.9</v>
+        <v>25</v>
       </c>
       <c r="I60" t="n">
-        <v>19</v>
+        <v>37.5</v>
       </c>
       <c r="J60" t="n">
-        <v>54</v>
+        <v>37.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L60" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Hougang United</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>37.5</v>
+        <v>57.1</v>
       </c>
       <c r="H61" t="n">
-        <v>25</v>
+        <v>22.9</v>
       </c>
       <c r="I61" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L61" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Santa Clara U23</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Leixões U23</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>45.3</v>
+        <v>52.9</v>
       </c>
       <c r="H62" t="n">
-        <v>35.8</v>
+        <v>29.4</v>
       </c>
       <c r="I62" t="n">
-        <v>18.9</v>
+        <v>17.6</v>
       </c>
       <c r="J62" t="n">
-        <v>50.9</v>
+        <v>58.8</v>
       </c>
       <c r="K62" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="L62" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>León W</t>
+          <t>Hamrun Spartans</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Puebla W</t>
+          <t>Marsaxlokk</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>65.40000000000001</v>
+        <v>52.6</v>
       </c>
       <c r="H63" t="n">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
       <c r="I63" t="n">
-        <v>11.5</v>
+        <v>22.8</v>
       </c>
       <c r="J63" t="n">
-        <v>38.5</v>
+        <v>57.9</v>
       </c>
       <c r="K63" t="n">
         <v>0.82</v>
       </c>
       <c r="L63" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Al-Fateh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>51.5</v>
+        <v>48.9</v>
       </c>
       <c r="H64" t="n">
-        <v>30.3</v>
+        <v>34</v>
       </c>
       <c r="I64" t="n">
-        <v>18.2</v>
+        <v>17</v>
       </c>
       <c r="J64" t="n">
-        <v>60.6</v>
+        <v>55.3</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CS Chebba</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mégrine</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>37.1</v>
+        <v>47.2</v>
       </c>
       <c r="H65" t="n">
-        <v>24.2</v>
+        <v>36.1</v>
       </c>
       <c r="I65" t="n">
-        <v>38.7</v>
+        <v>16.7</v>
       </c>
       <c r="J65" t="n">
-        <v>72.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L65" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Al-Ahli Jeddah</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>44.9</v>
+        <v>47.2</v>
       </c>
       <c r="H66" t="n">
-        <v>8.699999999999999</v>
+        <v>36.1</v>
       </c>
       <c r="I66" t="n">
-        <v>46.4</v>
+        <v>16.7</v>
       </c>
       <c r="J66" t="n">
-        <v>40.6</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L66" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Middlesbrough U21</t>
+          <t>AFC Bournemouth U21</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nottingham Forest U21</t>
+          <t>Millwall U21</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.35</v>
+        <v>1.39</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>32.7</v>
+        <v>54.8</v>
       </c>
       <c r="H67" t="n">
-        <v>22.4</v>
+        <v>32.3</v>
       </c>
       <c r="I67" t="n">
-        <v>44.9</v>
+        <v>12.9</v>
       </c>
       <c r="J67" t="n">
-        <v>49</v>
+        <v>45.2</v>
       </c>
       <c r="K67" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="L67" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Pachuca W</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Matagalpa</t>
+          <t>Juárez W</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>49.1</v>
+        <v>54.8</v>
       </c>
       <c r="H68" t="n">
-        <v>26.4</v>
+        <v>32.3</v>
       </c>
       <c r="I68" t="n">
-        <v>24.5</v>
+        <v>12.9</v>
       </c>
       <c r="J68" t="n">
-        <v>54.7</v>
+        <v>45.2</v>
       </c>
       <c r="K68" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="L68" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Everton U21</t>
+          <t>Al-Hidd</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Burnley U21</t>
+          <t>Sitra</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.31</v>
+        <v>2.28</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>53.3</v>
+        <v>32.3</v>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>32.3</v>
       </c>
       <c r="I69" t="n">
-        <v>16.7</v>
+        <v>35.5</v>
       </c>
       <c r="J69" t="n">
-        <v>53.3</v>
+        <v>45.2</v>
       </c>
       <c r="K69" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="L69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>West Ham United U21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sportist Svoge</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>42.4</v>
+        <v>32.3</v>
       </c>
       <c r="H70" t="n">
-        <v>39.4</v>
+        <v>32.3</v>
       </c>
       <c r="I70" t="n">
-        <v>18.2</v>
+        <v>35.5</v>
       </c>
       <c r="J70" t="n">
-        <v>66.7</v>
+        <v>45.2</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="L70" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sharjah FC</t>
+          <t>Racing United</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nasaf</t>
+          <t>Chapelton</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>52.2</v>
+        <v>44.4</v>
       </c>
       <c r="H71" t="n">
-        <v>23.9</v>
+        <v>20</v>
       </c>
       <c r="I71" t="n">
-        <v>23.9</v>
+        <v>35.6</v>
       </c>
       <c r="J71" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="L71" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>02:15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lusitânia Lourosa</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.55</v>
+        <v>1.34</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>26.7</v>
+        <v>52.1</v>
       </c>
       <c r="H72" t="n">
-        <v>11.1</v>
+        <v>22.9</v>
       </c>
       <c r="I72" t="n">
-        <v>62.2</v>
+        <v>25</v>
       </c>
       <c r="J72" t="n">
-        <v>24.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="L72" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Instituto Cordoba</t>
+          <t>CFRJ / Maricá</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Central Cordoba de Santiago</t>
+          <t>Portuguesa RJ</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>34.2</v>
+        <v>28.3</v>
       </c>
       <c r="H73" t="n">
-        <v>36.8</v>
+        <v>34.8</v>
       </c>
       <c r="I73" t="n">
-        <v>28.9</v>
+        <v>37</v>
       </c>
       <c r="J73" t="n">
-        <v>44.7</v>
+        <v>39.1</v>
       </c>
       <c r="K73" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L73" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tigres FC</t>
+          <t>Xelajú</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ind. Yumbo</t>
+          <t>Mixco</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>32.3</v>
+        <v>40.4</v>
       </c>
       <c r="H74" t="n">
-        <v>14.5</v>
+        <v>27.7</v>
       </c>
       <c r="I74" t="n">
-        <v>53.2</v>
+        <v>31.9</v>
       </c>
       <c r="J74" t="n">
-        <v>30.6</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="L74" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tychy 71</t>
+          <t>Chelmsford City</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Hemel Hempstead Town</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="H75" t="n">
-        <v>36.4</v>
+        <v>27.6</v>
       </c>
       <c r="I75" t="n">
-        <v>36.4</v>
+        <v>44.8</v>
       </c>
       <c r="J75" t="n">
-        <v>27.3</v>
+        <v>58.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="L75" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Leicester City U21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor</t>
+          <t>Manchester United U21</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>43.6</v>
+        <v>17.6</v>
       </c>
       <c r="H76" t="n">
-        <v>25.6</v>
+        <v>23.5</v>
       </c>
       <c r="I76" t="n">
-        <v>30.8</v>
+        <v>58.8</v>
       </c>
       <c r="J76" t="n">
-        <v>53.8</v>
+        <v>41.2</v>
       </c>
       <c r="K76" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="L76" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Campobasso FC</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.3</v>
+        <v>3.14</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>26.8</v>
+        <v>14.3</v>
       </c>
       <c r="H77" t="n">
-        <v>24.4</v>
+        <v>21.4</v>
       </c>
       <c r="I77" t="n">
-        <v>48.8</v>
+        <v>64.3</v>
       </c>
       <c r="J77" t="n">
-        <v>46.3</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="L77" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>23.7</v>
+        <v>18.2</v>
       </c>
       <c r="H78" t="n">
-        <v>23.7</v>
+        <v>18.2</v>
       </c>
       <c r="I78" t="n">
-        <v>52.6</v>
+        <v>63.6</v>
       </c>
       <c r="J78" t="n">
-        <v>67</v>
+        <v>36.4</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="L78" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Amed</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Van BB</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.62</v>
+        <v>1.53</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="H79" t="n">
-        <v>25</v>
+        <v>18.2</v>
       </c>
       <c r="I79" t="n">
-        <v>57.1</v>
+        <v>63.6</v>
       </c>
       <c r="J79" t="n">
-        <v>60.7</v>
+        <v>36.4</v>
       </c>
       <c r="K79" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="L79" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Werder Bremen W</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bayern Munich W</t>
+          <t>AFC Hermannstadt</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13.5</v>
+        <v>2.86</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Ironi Modi'in</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Hapoel Kfar Shalem</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5.35</v>
+        <v>3.26</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4178,21 +4178,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sohar</t>
+          <t>Al Salmiyah</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4224,21 +4224,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Majd</t>
+          <t>FK Trakai</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
+          <t>Kauno Žalgiris</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>8.699999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
